--- a/Lab2_distancesensor/omegadata_1.xlsx
+++ b/Lab2_distancesensor/omegadata_1.xlsx
@@ -10,12 +10,8 @@
     <sheet name="omegadata_1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17013,11 +17009,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49603712"/>
-        <c:axId val="49603136"/>
+        <c:axId val="550894336"/>
+        <c:axId val="550894912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49603712"/>
+        <c:axId val="550894336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17027,12 +17023,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49603136"/>
+        <c:crossAx val="550894912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49603136"/>
+        <c:axId val="550894912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17043,7 +17039,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49603712"/>
+        <c:crossAx val="550894336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17079,20 +17075,74 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="el-GR" sz="2000"/>
+              <a:t>Ω</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> - 1D Sweep Using Servo Actuated IR Distance Sensor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18066808279517607"/>
+          <c:y val="1.3490725126475547E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3729280589655434E-2"/>
+          <c:y val="9.4665586700482002E-2"/>
+          <c:w val="0.87437836792611112"/>
+          <c:h val="0.80132835840713845"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Distance</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="28575">
+            <a:ln w="12700">
               <a:noFill/>
+              <a:prstDash val="dash"/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:alpha val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>omegadata_1!$A$1:$A$543</c:f>
@@ -20379,45 +20429,104 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49606016"/>
-        <c:axId val="49606592"/>
+        <c:axId val="69740800"/>
+        <c:axId val="69741376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49606016"/>
+        <c:axId val="69740800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="180"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Servo Angle</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49606592"/>
+        <c:crossAx val="69741376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49606592"/>
+        <c:axId val="69741376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="40"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Distance (in) </a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49606016"/>
+        <c:crossAx val="69740800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.79187190975507393"/>
+          <c:y val="0.8176887838429977"/>
+          <c:w val="0.11149924785945635"/>
+          <c:h val="5.1532268415857799E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -20470,16 +20579,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -32612,11 +32721,11 @@
         <v>0</v>
       </c>
       <c r="E514">
-        <f t="shared" ref="E514:E577" si="25">IF(D514=0,0,C514)</f>
+        <f t="shared" ref="E514:E543" si="25">IF(D514=0,0,C514)</f>
         <v>0</v>
       </c>
       <c r="F514">
-        <f t="shared" ref="F514:F577" si="26">A514</f>
+        <f t="shared" ref="F514:F543" si="26">A514</f>
         <v>29</v>
       </c>
     </row>
@@ -33297,7 +33406,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
